--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value74.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value74.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.498061827286651</v>
+        <v>3.959228515625</v>
       </c>
       <c r="B1">
-        <v>1.830329947210884</v>
+        <v>4.852128028869629</v>
       </c>
       <c r="C1">
-        <v>1.823730112360914</v>
+        <v>6.139092445373535</v>
       </c>
       <c r="D1">
-        <v>2.354570559826918</v>
+        <v>10.29194164276123</v>
       </c>
       <c r="E1">
-        <v>2.16158967014933</v>
+        <v>5.179050922393799</v>
       </c>
     </row>
   </sheetData>
